--- a/data/Results/answer relevance easy.xlsx
+++ b/data/Results/answer relevance easy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F724DD49-02F4-4593-9FFC-066A63DA6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A653C20-66CD-42DD-BB57-368DE36F68C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -181,6 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="T36" workbookViewId="0">
+      <selection activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3178,7 +3179,7 @@
         <v>0.8</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" ref="P34:P65" si="6">AVERAGE(M34:O34)</f>
+        <f t="shared" ref="P34:P50" si="6">AVERAGE(M34:O34)</f>
         <v>0.56666666666666665</v>
       </c>
       <c r="Q34" s="10">
@@ -4649,99 +4650,99 @@
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="20">
         <f>AVERAGE(A2:A52)</f>
         <v>0.96862745098039216</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="20">
         <f>AVERAGE(B2:B52)</f>
         <v>0.89607843137254861</v>
       </c>
-      <c r="C53">
-        <f t="shared" ref="B53:X53" si="13">AVERAGE(C2:C52)</f>
+      <c r="C53" s="20">
+        <f t="shared" ref="C53:X53" si="13">AVERAGE(C2:C52)</f>
         <v>0.95098039215686248</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="20">
         <f t="shared" si="13"/>
         <v>0.93856209150326786</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="20">
         <f t="shared" si="13"/>
         <v>0.91764705882352904</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="20">
         <f t="shared" si="13"/>
         <v>0.73921568627450973</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="20">
         <f t="shared" si="13"/>
         <v>0.89215686274509765</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="20">
         <f t="shared" si="13"/>
         <v>0.84967320261437929</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="20">
         <f t="shared" si="13"/>
         <v>0.91176470588235248</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="20">
         <f t="shared" si="13"/>
         <v>0.66470588235294148</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="20">
         <f t="shared" si="13"/>
         <v>0.87058823529411711</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="20">
         <f t="shared" si="13"/>
         <v>0.80392156862745079</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="20">
         <f t="shared" si="13"/>
         <v>0.90588235294117625</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="20">
         <f t="shared" si="13"/>
         <v>0.62156862745098074</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="20">
         <f t="shared" si="13"/>
         <v>0.83137254901960755</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="20">
         <f t="shared" si="13"/>
         <v>0.78627450980392144</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="20">
         <f t="shared" si="13"/>
         <v>0.1823529411764705</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="20">
         <f t="shared" si="13"/>
         <v>9.8039215686274508E-3</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="20">
         <f t="shared" si="13"/>
         <v>0.28823529411764698</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="20">
         <f t="shared" si="13"/>
         <v>0.16013071895424832</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="20">
         <f t="shared" si="13"/>
         <v>0.17647058823529405</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="20">
         <f t="shared" si="13"/>
         <v>3.9215686274509803E-3</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="20">
         <f t="shared" si="13"/>
         <v>0.23725490196078411</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="20">
         <f t="shared" si="13"/>
         <v>0.13921568627450978</v>
       </c>
